--- a/GunfireDungeon_Godot/excel/BulletBase@子弹属性.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase@子弹属性.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="132">
   <si>
     <t>Id</t>
   </si>
@@ -296,10 +296,10 @@
     <t>bullet0006</t>
   </si>
   <si>
-    <t>"Magic":[30]</t>
-  </si>
-  <si>
-    <t>"Burning":15</t>
+    <t>"Magic":[3]</t>
+  </si>
+  <si>
+    <t>"Burning":5</t>
   </si>
   <si>
     <t>[45]</t>
@@ -335,25 +335,28 @@
     <t>bullet0007</t>
   </si>
   <si>
+    <t>"Real":[2]</t>
+  </si>
+  <si>
+    <t>"Poisoning":8</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>水子弹</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
+  </si>
+  <si>
     <t>"Real":[20]</t>
-  </si>
-  <si>
-    <t>"Poisoning":10</t>
-  </si>
-  <si>
-    <t>[350,380]</t>
-  </si>
-  <si>
-    <t>[400,450]</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>水子弹</t>
-  </si>
-  <si>
-    <t>bullet0008</t>
   </si>
   <si>
     <t>狙击枪子弹</t>
@@ -1417,7 +1420,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1916,7 +1919,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -1971,7 +1974,7 @@
     <row r="11" ht="29" customHeight="1" spans="1:17">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -1980,23 +1983,23 @@
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>51</v>
@@ -2014,37 +2017,37 @@
     <row r="12" ht="26" customHeight="1" spans="1:19">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>51</v>
@@ -2053,7 +2056,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>57</v>
@@ -2062,34 +2065,34 @@
     <row r="13" ht="26" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>51</v>
@@ -2104,7 +2107,7 @@
     <row r="16" ht="26" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2113,7 +2116,7 @@
         <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>61</v>
@@ -2146,31 +2149,31 @@
     <row r="17" ht="26" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>51</v>
@@ -2203,31 +2206,31 @@
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -2240,28 +2243,28 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
